--- a/setting_automation/북미 test.xlsx
+++ b/setting_automation/북미 test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>제목</t>
   </si>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,10 +364,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,8 +894,8 @@
     <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
     <col min="5" max="8" width="14.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="69.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="67.125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="67.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
@@ -891,72 +908,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="17"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1060,7 @@
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1278,6 +1295,299 @@
         <v>42</v>
       </c>
       <c r="U7" s="10">
+        <v>3886000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3285000</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3285000</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3285000</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3285000</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3285000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="3">
+        <v>3967000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="10">
+        <v>3886000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3967000</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3967000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="10">
+        <v>3886000</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="10">
         <v>3886000</v>
       </c>
     </row>

--- a/setting_automation/북미 test.xlsx
+++ b/setting_automation/북미 test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>제목</t>
   </si>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>00:38:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:06:02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,6 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,9 +381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,7 +887,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,72 +912,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="19"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1064,7 @@
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1070,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>29</v>
@@ -1141,9 +1145,7 @@
       <c r="I5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
